--- a/MedicalLink/Templates/BC_119_DSHuongTienDVMoYC.xlsx
+++ b/MedicalLink/Templates/BC_119_DSHuongTienDVMoYC.xlsx
@@ -506,7 +506,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -612,6 +612,147 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,152 +777,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -789,84 +786,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1184,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="X1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,20 +1124,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="D1" s="29"/>
       <c r="E1" s="15"/>
       <c r="F1" s="29"/>
       <c r="G1" s="26"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
       <c r="Q1" s="32"/>
       <c r="U1" s="32"/>
       <c r="Y1" s="32"/>
@@ -1226,28 +1146,28 @@
       <c r="AK1" s="32"/>
     </row>
     <row r="2" spans="1:44" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="30"/>
       <c r="E2" s="16"/>
       <c r="F2" s="30"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
       <c r="U2" s="34"/>
@@ -1272,28 +1192,28 @@
       <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="31"/>
       <c r="E3" s="18"/>
       <c r="F3" s="30"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
       <c r="U3" s="36"/>
@@ -1321,19 +1241,19 @@
       <c r="E4" s="17"/>
       <c r="F4" s="31"/>
       <c r="G4" s="28"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="35"/>
@@ -1358,16 +1278,16 @@
       <c r="AN4" s="35"/>
     </row>
     <row r="6" spans="1:44" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="64" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="94" t="s">
@@ -1376,79 +1296,79 @@
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
       <c r="H6" s="94"/>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="74" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="50" t="s">
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="62" t="s">
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="68" t="s">
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="74" t="s">
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="70"/>
       <c r="AG6" s="80" t="s">
         <v>34</v>
       </c>
       <c r="AH6" s="81"/>
       <c r="AI6" s="81"/>
       <c r="AJ6" s="82"/>
-      <c r="AK6" s="86" t="s">
+      <c r="AK6" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="47" t="s">
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="AP6" s="47" t="s">
+      <c r="AP6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AQ6" s="48" t="s">
+      <c r="AQ6" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="89" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="58" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="37" t="s">
@@ -1463,210 +1383,210 @@
       <c r="L7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="77" t="s">
+      <c r="M7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="77" t="s">
+      <c r="O7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="P7" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="59" t="s">
+      <c r="Q7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="59" t="s">
+      <c r="R7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="59" t="s">
+      <c r="S7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="59" t="s">
+      <c r="T7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="65" t="s">
+      <c r="U7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="65" t="s">
+      <c r="V7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="65" t="s">
+      <c r="W7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="X7" s="65" t="s">
+      <c r="X7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="71" t="s">
+      <c r="Y7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="71" t="s">
+      <c r="Z7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="71" t="s">
+      <c r="AA7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" s="71" t="s">
+      <c r="AB7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AC7" s="77" t="s">
+      <c r="AC7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AD7" s="77" t="s">
+      <c r="AD7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="AE7" s="77" t="s">
+      <c r="AE7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="77" t="s">
+      <c r="AF7" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="83" t="s">
+      <c r="AG7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="83" t="s">
+      <c r="AH7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AI7" s="83" t="s">
+      <c r="AI7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AJ7" s="83" t="s">
+      <c r="AJ7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="89" t="s">
+      <c r="AK7" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="AL7" s="89" t="s">
+      <c r="AL7" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AM7" s="89" t="s">
+      <c r="AM7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AN7" s="89" t="s">
+      <c r="AN7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="49"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="66"/>
     </row>
-    <row r="8" spans="1:44" s="57" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="95">
+    <row r="8" spans="1:44" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="63">
         <v>5000000</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="63">
         <v>1500000</v>
       </c>
-      <c r="G8" s="95">
+      <c r="G8" s="63">
         <v>1300000</v>
       </c>
-      <c r="H8" s="95">
+      <c r="H8" s="63">
         <v>1200000</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="42">
         <v>1300000</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="40">
         <v>750000</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="40">
         <v>600000</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="40">
         <v>500000</v>
       </c>
-      <c r="M8" s="92">
+      <c r="M8" s="61">
         <v>500000</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="62">
         <v>400000</v>
       </c>
-      <c r="O8" s="78">
+      <c r="O8" s="53">
         <v>350000</v>
       </c>
-      <c r="P8" s="78">
+      <c r="P8" s="53">
         <v>325000</v>
       </c>
-      <c r="Q8" s="60">
+      <c r="Q8" s="44">
         <v>200000</v>
       </c>
-      <c r="R8" s="60">
+      <c r="R8" s="44">
         <v>160000</v>
       </c>
-      <c r="S8" s="60">
+      <c r="S8" s="44">
         <v>140000</v>
       </c>
-      <c r="T8" s="60">
+      <c r="T8" s="44">
         <v>130000</v>
       </c>
-      <c r="U8" s="66">
+      <c r="U8" s="47">
         <v>200000</v>
       </c>
-      <c r="V8" s="66">
+      <c r="V8" s="47">
         <v>160000</v>
       </c>
-      <c r="W8" s="66">
+      <c r="W8" s="47">
         <v>140000</v>
       </c>
-      <c r="X8" s="66">
+      <c r="X8" s="47">
         <v>130000</v>
       </c>
-      <c r="Y8" s="72">
+      <c r="Y8" s="50">
         <v>30000</v>
       </c>
-      <c r="Z8" s="72">
+      <c r="Z8" s="50">
         <v>24000</v>
       </c>
-      <c r="AA8" s="72">
+      <c r="AA8" s="50">
         <v>21000</v>
       </c>
-      <c r="AB8" s="72">
+      <c r="AB8" s="50">
         <v>19500</v>
       </c>
-      <c r="AC8" s="78">
+      <c r="AC8" s="53">
         <v>30000</v>
       </c>
-      <c r="AD8" s="78">
+      <c r="AD8" s="53">
         <v>24000</v>
       </c>
-      <c r="AE8" s="78">
+      <c r="AE8" s="53">
         <v>21000</v>
       </c>
-      <c r="AF8" s="78">
+      <c r="AF8" s="53">
         <v>19500</v>
       </c>
-      <c r="AG8" s="84">
+      <c r="AG8" s="56">
         <v>30000</v>
       </c>
-      <c r="AH8" s="84">
+      <c r="AH8" s="56">
         <v>24000</v>
       </c>
-      <c r="AI8" s="84">
+      <c r="AI8" s="56">
         <v>21000</v>
       </c>
-      <c r="AJ8" s="84">
+      <c r="AJ8" s="56">
         <v>19500</v>
       </c>
-      <c r="AK8" s="90">
+      <c r="AK8" s="59">
         <v>10000</v>
       </c>
-      <c r="AL8" s="90">
+      <c r="AL8" s="59">
         <v>8000</v>
       </c>
-      <c r="AM8" s="90">
+      <c r="AM8" s="59">
         <v>7000</v>
       </c>
-      <c r="AN8" s="90">
+      <c r="AN8" s="59">
         <v>6500</v>
       </c>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="54"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="39"/>
     </row>
     <row r="9" spans="1:44" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1681,16 +1601,16 @@
       <c r="D9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="91" t="s">
+      <c r="H9" s="60" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="19" t="s">
@@ -1705,88 +1625,88 @@
       <c r="L9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="M9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="79" t="s">
+      <c r="N9" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="61" t="s">
+      <c r="R9" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="S9" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="61" t="s">
+      <c r="T9" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="67" t="s">
+      <c r="U9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="V9" s="67" t="s">
+      <c r="V9" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="W9" s="67" t="s">
+      <c r="W9" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="X9" s="67" t="s">
+      <c r="X9" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="Y9" s="73" t="s">
+      <c r="Y9" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="Z9" s="73" t="s">
+      <c r="Z9" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="AA9" s="73" t="s">
+      <c r="AA9" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="AB9" s="73" t="s">
+      <c r="AB9" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="79" t="s">
+      <c r="AC9" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="79" t="s">
+      <c r="AD9" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="AE9" s="79" t="s">
+      <c r="AE9" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AF9" s="79" t="s">
+      <c r="AF9" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AG9" s="85" t="s">
+      <c r="AG9" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AH9" s="85" t="s">
+      <c r="AH9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="AI9" s="85" t="s">
+      <c r="AI9" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AJ9" s="85" t="s">
+      <c r="AJ9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="AK9" s="91" t="s">
+      <c r="AK9" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="AL9" s="91" t="s">
+      <c r="AL9" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="AM9" s="91" t="s">
+      <c r="AM9" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AN9" s="91" t="s">
+      <c r="AN9" s="60" t="s">
         <v>73</v>
       </c>
       <c r="AO9" s="19" t="s">
@@ -1796,11 +1716,11 @@
       <c r="AQ9" s="22"/>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="33"/>
       <c r="E10" s="14">
         <f>SUM(E9:E9)</f>
@@ -2055,11 +1975,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="H2:R2"/>
+    <mergeCell ref="H4:R4"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="AQ6:AQ7"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
@@ -2069,29 +1993,25 @@
     <mergeCell ref="AC6:AF6"/>
     <mergeCell ref="AG6:AJ6"/>
     <mergeCell ref="AK6:AN6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="H2:R2"/>
-    <mergeCell ref="H4:R4"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="AO6:AO8"/>
+    <mergeCell ref="AP6:AP8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:B10 A9:C9 E9:AP10">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AQ10">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MedicalLink/Templates/BC_119_DSHuongTienDVMoYC.xlsx
+++ b/MedicalLink/Templates/BC_119_DSHuongTienDVMoYC.xlsx
@@ -258,10 +258,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -506,7 +507,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -687,72 +688,6 @@
     <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,6 +714,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1104,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="X1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,20 +1131,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="29"/>
       <c r="E1" s="15"/>
       <c r="F1" s="29"/>
       <c r="G1" s="26"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
       <c r="Q1" s="32"/>
       <c r="U1" s="32"/>
       <c r="Y1" s="32"/>
@@ -1146,28 +1153,28 @@
       <c r="AK1" s="32"/>
     </row>
     <row r="2" spans="1:44" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="30"/>
       <c r="E2" s="16"/>
       <c r="F2" s="30"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
       <c r="U2" s="34"/>
@@ -1192,28 +1199,28 @@
       <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="31"/>
       <c r="E3" s="18"/>
       <c r="F3" s="30"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
       <c r="U3" s="36"/>
@@ -1241,19 +1248,19 @@
       <c r="E4" s="17"/>
       <c r="F4" s="31"/>
       <c r="G4" s="28"/>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="35"/>
@@ -1278,87 +1285,87 @@
       <c r="AN4" s="35"/>
     </row>
     <row r="6" spans="1:44" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="67" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68" t="s">
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="71" t="s">
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="77" t="s">
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="68" t="s">
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="80" t="s">
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="83" t="s">
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="64" t="s">
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="AP6" s="64" t="s">
+      <c r="AP6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AQ6" s="64" t="s">
+      <c r="AQ6" s="73" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="58" t="s">
         <v>25</v>
       </c>
@@ -1467,15 +1474,15 @@
       <c r="AN7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="66"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="74"/>
     </row>
     <row r="8" spans="1:44" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="63">
         <v>5000000</v>
       </c>
@@ -1584,8 +1591,8 @@
       <c r="AN8" s="59">
         <v>6500</v>
       </c>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
       <c r="AQ8" s="39"/>
     </row>
     <row r="9" spans="1:44" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1613,16 +1620,16 @@
       <c r="H9" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="95" t="s">
         <v>45</v>
       </c>
       <c r="M9" s="54" t="s">
@@ -1716,11 +1723,11 @@
       <c r="AQ9" s="22"/>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="33"/>
       <c r="E10" s="14">
         <f>SUM(E9:E9)</f>
@@ -1738,19 +1745,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="I10" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1975,15 +1982,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="H2:R2"/>
-    <mergeCell ref="H4:R4"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="E6:H6"/>
     <mergeCell ref="AQ6:AQ7"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
@@ -1995,6 +1993,15 @@
     <mergeCell ref="AK6:AN6"/>
     <mergeCell ref="AO6:AO8"/>
     <mergeCell ref="AP6:AP8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="H2:R2"/>
+    <mergeCell ref="H4:R4"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="E6:H6"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>

--- a/MedicalLink/Templates/BC_119_DSHuongTienDVMoYC.xlsx
+++ b/MedicalLink/Templates/BC_119_DSHuongTienDVMoYC.xlsx
@@ -688,6 +688,78 @@
     <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,78 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1111,40 +1111,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="X1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="3" customWidth="1"/>
     <col min="5" max="7" width="8.140625" style="3" customWidth="1"/>
     <col min="8" max="40" width="8.140625" style="1" customWidth="1"/>
     <col min="41" max="41" width="18.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="1" customWidth="1"/>
     <col min="43" max="43" width="16.28515625" style="1" customWidth="1"/>
     <col min="44" max="44" width="8.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="45" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
       <c r="D1" s="29"/>
       <c r="E1" s="15"/>
       <c r="F1" s="29"/>
       <c r="G1" s="26"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="32"/>
       <c r="U1" s="32"/>
       <c r="Y1" s="32"/>
@@ -1153,28 +1153,28 @@
       <c r="AK1" s="32"/>
     </row>
     <row r="2" spans="1:44" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="30"/>
       <c r="E2" s="16"/>
       <c r="F2" s="30"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
       <c r="S2" s="23"/>
       <c r="T2" s="23"/>
       <c r="U2" s="34"/>
@@ -1199,28 +1199,28 @@
       <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
       <c r="D3" s="31"/>
       <c r="E3" s="18"/>
       <c r="F3" s="30"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
       <c r="U3" s="36"/>
@@ -1248,19 +1248,19 @@
       <c r="E4" s="17"/>
       <c r="F4" s="31"/>
       <c r="G4" s="28"/>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="35"/>
@@ -1285,87 +1285,87 @@
       <c r="AN4" s="35"/>
     </row>
     <row r="6" spans="1:44" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="75" t="s">
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79" t="s">
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="82" t="s">
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="85" t="s">
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="76" t="s">
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="88" t="s">
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="91" t="s">
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="73" t="s">
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AP6" s="73" t="s">
+      <c r="AP6" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="AQ6" s="73" t="s">
+      <c r="AQ6" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="58" t="s">
         <v>25</v>
       </c>
@@ -1474,15 +1474,15 @@
       <c r="AN7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="74"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="67"/>
     </row>
     <row r="8" spans="1:44" s="41" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="63">
         <v>5000000</v>
       </c>
@@ -1591,8 +1591,8 @@
       <c r="AN8" s="59">
         <v>6500</v>
       </c>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
       <c r="AQ8" s="39"/>
     </row>
     <row r="9" spans="1:44" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1620,16 +1620,16 @@
       <c r="H9" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="95" t="s">
+      <c r="J9" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="95" t="s">
+      <c r="L9" s="64" t="s">
         <v>45</v>
       </c>
       <c r="M9" s="54" t="s">
@@ -1723,11 +1723,11 @@
       <c r="AQ9" s="22"/>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="33"/>
       <c r="E10" s="14">
         <f>SUM(E9:E9)</f>
@@ -1745,19 +1745,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="96">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="96">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="96">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="96">
+      <c r="I10" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1982,17 +1982,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="AK6:AN6"/>
-    <mergeCell ref="AO6:AO8"/>
-    <mergeCell ref="AP6:AP8"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -2006,6 +1995,17 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="AK6:AN6"/>
+    <mergeCell ref="AO6:AO8"/>
+    <mergeCell ref="AP6:AP8"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:B10 A9:C9 E9:AP10">
     <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
